--- a/data/behavior_data/Fp1_Motor_GI_function.xlsx
+++ b/data/behavior_data/Fp1_Motor_GI_function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltech-my.sharepoint.com/personal/anamois_caltech_edu/Documents/Caltech/MZ Lab/Write ups/Paper/Data availability/Behavior data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiaoguienko/git/amoiseyenko2025/data/behavior_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{05E175B3-CFDA-3D4D-85F3-9C6F7C234B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03C370FF-DA5E-B54C-BD75-57C686FEF95A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393AFC9D-29E0-444B-8A66-187D4CC09B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25760" yWindow="1700" windowWidth="22660" windowHeight="22320" firstSheet="1" activeTab="10" xr2:uid="{8FAD2B0A-511F-8C4E-B0A9-D9067B35B2EF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" firstSheet="1" activeTab="7" xr2:uid="{8FAD2B0A-511F-8C4E-B0A9-D9067B35B2EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Beam_time" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="24">
   <si>
     <t>Genotype</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Cohort</t>
   </si>
   <si>
     <t>Cage</t>
@@ -200,10 +197,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -533,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -550,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -567,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -584,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -601,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -618,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -632,10 +625,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -649,10 +642,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -666,10 +659,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -683,10 +676,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -700,10 +693,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -717,10 +710,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -734,10 +727,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -751,10 +744,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -765,10 +758,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -782,10 +775,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -799,10 +792,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -819,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -836,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -853,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -870,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -887,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -901,10 +894,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -918,10 +911,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -935,10 +928,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -952,10 +945,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -969,10 +962,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -986,10 +979,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -1003,10 +996,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -1020,10 +1013,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -1037,10 +1030,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -1054,10 +1047,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -1089,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1112,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1135,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1158,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1181,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1204,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1227,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1247,10 +1240,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1270,10 +1263,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1293,10 +1286,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1316,10 +1309,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1339,10 +1332,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1362,10 +1355,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1385,10 +1378,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1408,10 +1401,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1431,10 +1424,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -1454,10 +1447,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -1477,10 +1470,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -1503,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -1526,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -1549,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -1572,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -1595,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -1615,10 +1608,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -1638,10 +1631,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -1661,10 +1654,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -1684,10 +1677,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -1707,10 +1700,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -1730,10 +1723,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -1753,10 +1746,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -1776,10 +1769,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -1799,10 +1792,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -1822,10 +1815,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -1850,29 +1843,29 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EBAE04-AF09-154C-9881-0AB2D07A68B9}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:H33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>21</v>
@@ -1880,839 +1873,740 @@
       <c r="G1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
         <v>1787</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.46527777777777773</v>
       </c>
       <c r="F2" s="1">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G2" s="1">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="G2" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
         <v>1788</v>
       </c>
+      <c r="E3" s="1">
+        <v>0.4680555555555555</v>
+      </c>
       <c r="F3" s="1">
-        <v>0.4680555555555555</v>
-      </c>
-      <c r="G3" s="1">
         <v>0.49791666666666662</v>
       </c>
-      <c r="H3" s="9">
+      <c r="G3" s="9">
         <v>43.000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
         <v>1789</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E4" s="1">
         <v>0.47152777777777777</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="G4" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5">
+        <v>1814</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="G5" s="9">
+        <v>15.999999999999943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>1814</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.47500000000000003</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="H5" s="9">
-        <v>15.999999999999943</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
       <c r="D6">
+        <v>1816</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.99999999999991651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>1816</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.4777777777777778</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.47847222222222219</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.99999999999991651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
       <c r="D7">
+        <v>1817</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.99999999999999645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1798</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="F8" t="s">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>1817</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.47986111111111113</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.48055555555555557</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.99999999999999645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
+      <c r="G8" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>1798</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.41805555555555557</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
       <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
         <v>1802</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.42222222222222222</v>
       </c>
       <c r="F9" s="1">
         <v>0.42222222222222222</v>
       </c>
-      <c r="G9" s="1">
-        <v>0.42222222222222222</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="G9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
       </c>
       <c r="D10">
+        <v>1810</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="G10" s="9">
+        <v>27.999999999999979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="E10">
-        <v>1810</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.42638888888888887</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.4458333333333333</v>
-      </c>
-      <c r="H10" s="9">
-        <v>27.999999999999979</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
       <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
         <v>1813</v>
       </c>
-      <c r="F11" s="1">
+      <c r="E11" s="1">
         <v>0.42986111111111108</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="G11" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
       </c>
       <c r="D12">
+        <v>1790</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G12" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
         <v>5</v>
       </c>
-      <c r="E12">
-        <v>1790</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.44930555555555557</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.46458333333333335</v>
-      </c>
-      <c r="H12" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
       <c r="D13">
+        <v>1791</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="G13" s="9">
+        <v>23.999999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
         <v>5</v>
       </c>
-      <c r="E13">
-        <v>1791</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.45347222222222222</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.47013888888888888</v>
-      </c>
-      <c r="H13" s="9">
-        <v>23.999999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
       <c r="D14">
+        <v>1793</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="G14" s="9">
+        <v>30.000000000000053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="E14">
-        <v>1793</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.45555555555555555</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.47638888888888892</v>
-      </c>
-      <c r="H14" s="9">
-        <v>30.000000000000053</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
       <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
         <v>1794</v>
       </c>
+      <c r="E15" s="1">
+        <v>0.45902777777777781</v>
+      </c>
       <c r="F15" s="1">
-        <v>0.45902777777777781</v>
-      </c>
-      <c r="G15" s="1">
         <v>0.46597222222222223</v>
       </c>
-      <c r="H15" s="9">
+      <c r="G15" s="9">
         <v>9.9999999999999645</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1</v>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16">
         <v>1826</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.43402777777777773</v>
       </c>
       <c r="F16" s="1">
         <v>0.43402777777777773</v>
       </c>
-      <c r="G16" s="1">
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="H16" s="9">
+      <c r="G16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
       </c>
       <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>1829</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="G17" s="9">
+        <v>22.999999999999918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1825</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="G18" s="9">
+        <v>14.00000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1843</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.0000000000000764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>1845</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.9999999999999929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>1848</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>1829</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="D22">
+        <v>1851</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="G22" s="2">
+        <v>33.000000000000043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>1852</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.99999999999999645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>1830</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="G24" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>1831</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="G25" s="2">
+        <v>31.00000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>1839</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="G26" s="2">
+        <v>20.999999999999925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>1850</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="G27" s="2">
+        <v>42.000000000000092</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>1853</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>1847</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="G29" s="2">
+        <v>8.0000000000000515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>1844</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="G30" s="2">
+        <v>39.000000000000021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>1856</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="G31" s="2">
+        <v>36.99999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>1857</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="F32" s="1">
         <v>0.43958333333333338</v>
       </c>
-      <c r="G17" s="1">
-        <v>0.45555555555555555</v>
-      </c>
-      <c r="H17" s="9">
-        <v>22.999999999999918</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>1825</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.44305555555555554</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.45277777777777778</v>
-      </c>
-      <c r="H18" s="9">
-        <v>14.00000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="G32" s="2">
+        <v>10.000000000000124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>1858</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>1843</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.44166666666666665</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.44236111111111115</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1.0000000000000764</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>1845</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.44513888888888892</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.4465277777777778</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1.9999999999999929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>1848</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="G21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>1851</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.45208333333333334</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.47500000000000003</v>
-      </c>
-      <c r="H22" s="2">
-        <v>33.000000000000043</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>8</v>
-      </c>
-      <c r="E23">
-        <v>1852</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.4548611111111111</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.45555555555555555</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.99999999999999645</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>1830</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.41180555555555554</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="H24" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>1831</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.4145833333333333</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.43611111111111112</v>
-      </c>
-      <c r="H25" s="2">
-        <v>31.00000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>1839</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.41805555555555557</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.43263888888888885</v>
-      </c>
-      <c r="H26" s="2">
-        <v>20.999999999999925</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>1850</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.43194444444444446</v>
-      </c>
-      <c r="H27" s="2">
-        <v>42.000000000000092</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>1853</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="G28" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>1847</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0.42222222222222222</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0.42777777777777781</v>
-      </c>
-      <c r="H29" s="2">
-        <v>8.0000000000000515</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30">
-        <v>11</v>
-      </c>
-      <c r="E30">
-        <v>1844</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.42569444444444443</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.45277777777777778</v>
-      </c>
-      <c r="H30" s="2">
-        <v>39.000000000000021</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>1856</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.4291666666666667</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.4548611111111111</v>
-      </c>
-      <c r="H31" s="2">
-        <v>36.99999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32">
-        <v>12</v>
-      </c>
-      <c r="E32">
-        <v>1857</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.43263888888888885</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.43958333333333338</v>
-      </c>
-      <c r="H32" s="2">
-        <v>10.000000000000124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33">
-        <v>12</v>
-      </c>
-      <c r="E33">
-        <v>1858</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.4368055555555555</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="G33" s="2">
         <v>60</v>
       </c>
     </row>
@@ -2736,16 +2630,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2753,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2770,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2787,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2804,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -2821,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2838,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2852,10 +2746,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -2869,10 +2763,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2886,10 +2780,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -2903,10 +2797,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2920,10 +2814,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2937,10 +2831,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -2954,10 +2848,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -2971,10 +2865,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -2988,10 +2882,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -3005,10 +2899,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -3022,10 +2916,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -3042,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -3059,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -3076,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -3093,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -3110,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -3124,10 +3018,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -3141,10 +3035,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -3158,10 +3052,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -3175,10 +3069,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -3192,10 +3086,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -3209,10 +3103,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -3226,10 +3120,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -3243,10 +3137,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -3260,10 +3154,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -3277,10 +3171,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -3312,22 +3206,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3335,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3359,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3383,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3407,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -3431,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -3455,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -3476,10 +3370,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -3500,10 +3394,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -3514,10 +3408,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -3538,10 +3432,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -3562,10 +3456,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -3586,10 +3480,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -3610,10 +3504,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -3634,10 +3528,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -3648,10 +3542,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -3672,10 +3566,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -3696,10 +3590,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -3723,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -3747,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -3771,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -3795,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -3819,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -3840,10 +3734,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -3864,10 +3758,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -3888,10 +3782,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -3902,10 +3796,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -3926,10 +3820,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -3950,10 +3844,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -3974,10 +3868,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -3998,10 +3892,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -4022,10 +3916,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -4046,10 +3940,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -4088,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4105,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4122,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4139,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4156,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -4173,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -4190,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -4204,10 +4098,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -4221,10 +4115,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -4238,10 +4132,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -4255,10 +4149,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -4272,10 +4166,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -4289,10 +4183,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -4306,10 +4200,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -4323,10 +4217,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -4340,10 +4234,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -4357,10 +4251,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -4374,10 +4268,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4394,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -4411,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -4428,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -4445,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -4462,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -4476,10 +4370,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -4493,10 +4387,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -4510,10 +4404,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -4527,10 +4421,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -4544,10 +4438,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -4561,10 +4455,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -4578,10 +4472,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -4595,10 +4489,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -4612,10 +4506,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -4629,10 +4523,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -4664,16 +4558,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4681,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4698,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4715,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4732,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -4749,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -4766,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -4780,10 +4674,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -4797,10 +4691,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -4814,10 +4708,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -4831,10 +4725,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -4848,10 +4742,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -4865,10 +4759,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -4882,10 +4776,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -4899,10 +4793,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -4916,10 +4810,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -4933,10 +4827,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -4950,10 +4844,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4970,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -4987,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -5004,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -5021,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -5038,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -5052,10 +4946,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -5069,10 +4963,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -5086,10 +4980,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -5103,10 +4997,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -5120,10 +5014,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -5137,10 +5031,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -5154,10 +5048,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -5171,10 +5065,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -5188,10 +5082,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -5205,10 +5099,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -5240,16 +5134,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5257,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5274,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5291,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5308,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -5325,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -5342,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -5356,10 +5250,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -5373,10 +5267,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -5390,10 +5284,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -5407,10 +5301,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -5424,10 +5318,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -5441,10 +5335,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -5458,10 +5352,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -5475,10 +5369,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -5492,10 +5386,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -5509,10 +5403,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -5526,10 +5420,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -5546,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -5563,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -5580,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -5597,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -5614,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -5628,10 +5522,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -5645,10 +5539,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -5662,10 +5556,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -5679,10 +5573,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -5696,10 +5590,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -5713,10 +5607,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -5730,10 +5624,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -5747,10 +5641,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -5764,10 +5658,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -5781,10 +5675,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -5816,16 +5710,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5833,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5850,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5867,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5884,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -5901,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -5918,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -5932,10 +5826,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -5949,10 +5843,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -5966,10 +5860,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -5983,10 +5877,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -6000,10 +5894,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -6017,10 +5911,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -6034,10 +5928,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -6051,10 +5945,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -6068,10 +5962,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -6085,10 +5979,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -6102,10 +5996,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -6122,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -6139,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -6156,7 +6050,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -6173,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -6190,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -6204,10 +6098,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -6221,10 +6115,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -6238,10 +6132,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -6255,10 +6149,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -6272,10 +6166,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -6289,10 +6183,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -6306,10 +6200,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -6323,10 +6217,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -6340,10 +6234,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -6357,10 +6251,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -6392,16 +6286,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -6409,7 +6303,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -6426,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -6443,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -6460,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -6477,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -6494,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -6508,10 +6402,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -6525,10 +6419,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -6542,10 +6436,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -6559,10 +6453,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -6576,10 +6470,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -6593,10 +6487,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -6610,10 +6504,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -6627,10 +6521,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -6644,10 +6538,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -6661,10 +6555,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -6678,10 +6572,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -6698,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -6715,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -6732,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -6749,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -6766,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -6780,10 +6674,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -6797,10 +6691,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -6814,10 +6708,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -6831,10 +6725,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -6848,10 +6742,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -6865,10 +6759,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -6882,10 +6776,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -6899,10 +6793,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -6916,10 +6810,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -6933,10 +6827,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -6957,8 +6851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437E9DC1-4707-684A-96F1-F39495A9F11A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6968,16 +6862,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -6985,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -7002,7 +6896,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -7019,7 +6913,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -7036,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -7053,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -7070,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -7084,10 +6978,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -7101,10 +6995,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -7118,10 +7012,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -7135,10 +7029,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -7152,10 +7046,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -7169,10 +7063,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -7186,10 +7080,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -7203,10 +7097,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -7220,10 +7114,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -7237,10 +7131,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -7254,10 +7148,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -7274,7 +7168,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -7291,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -7308,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -7325,7 +7219,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -7342,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -7356,10 +7250,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -7373,10 +7267,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -7390,10 +7284,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -7407,10 +7301,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -7424,10 +7318,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -7441,10 +7335,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -7461,10 +7355,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -7478,10 +7372,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -7495,10 +7389,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -7512,10 +7406,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -7547,31 +7441,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7579,7 +7473,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -7613,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -7647,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -7681,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -7715,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -7749,7 +7643,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -7780,10 +7674,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -7814,10 +7708,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -7848,10 +7742,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -7882,10 +7776,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -7916,10 +7810,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -7950,10 +7844,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -7984,10 +7878,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -8018,10 +7912,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -8052,10 +7946,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -8086,10 +7980,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -8120,10 +8014,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -8157,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -8178,7 +8072,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -8212,7 +8106,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -8246,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -8280,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -8311,10 +8205,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -8345,10 +8239,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -8379,10 +8273,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -8413,10 +8307,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -8447,10 +8341,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -8481,10 +8375,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -8515,10 +8409,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -8549,10 +8443,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -8583,10 +8477,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -8617,10 +8511,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>12</v>
